--- a/hello world.xlsx
+++ b/hello world.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Bienes" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,12 +15,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>=</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID_INGRESO_BIENES</t>
+  </si>
+  <si>
+    <t>ID_AMBIENTE</t>
+  </si>
+  <si>
+    <t>COD_PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>DENOMINACION</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>SERIE</t>
+  </si>
+  <si>
+    <t>DIMENSIONES</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>SITUACION</t>
+  </si>
+  <si>
+    <t>ESTADO_CONSERVACION</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>FECHA_REGISTRO</t>
+  </si>
+  <si>
+    <t>USUARIO_REGISTRO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>PRUEBARRasdasd</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>UUU</t>
+  </si>
+  <si>
+    <t>REGULARR</t>
+  </si>
+  <si>
+    <t>BIEN DE PRUENARRRsadasdasdsdasdasdasdasdasdsad</t>
+  </si>
+  <si>
+    <t>2025-04-05 12:28:04</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>2025-04-05 12:28:53</t>
+  </si>
+  <si>
+    <t>Bien de prueba</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
+    <t>prueb</t>
+  </si>
+  <si>
+    <t>2025-04-17 22:32:06</t>
+  </si>
+  <si>
+    <t>aasd</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>dasdasd</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>2025-04-17 22:34:24</t>
+  </si>
+  <si>
+    <t>2025-04-17 22:41:16</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>wqeasd</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>2025-04-17 22:42:29</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>2025-04-17 22:42:45</t>
+  </si>
+  <si>
+    <t>jk</t>
+  </si>
+  <si>
+    <t>hk</t>
+  </si>
+  <si>
+    <t>hjk</t>
+  </si>
+  <si>
+    <t>hkj</t>
+  </si>
+  <si>
+    <t>jh</t>
+  </si>
+  <si>
+    <t>kjh</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>2025-04-17 22:46:41</t>
+  </si>
+  <si>
+    <t>hjasbdkj</t>
+  </si>
+  <si>
+    <t>lj</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>jb</t>
+  </si>
+  <si>
+    <t>kjb</t>
+  </si>
+  <si>
+    <t>hjklj</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>2025-04-22 15:18:04</t>
+  </si>
+  <si>
+    <t>kj</t>
+  </si>
+  <si>
+    <t>dfdf</t>
+  </si>
+  <si>
+    <t>kjj</t>
+  </si>
+  <si>
+    <t>klj</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>klñ</t>
+  </si>
+  <si>
+    <t>ñ</t>
+  </si>
+  <si>
+    <t>jkl</t>
+  </si>
+  <si>
+    <t>lkj</t>
+  </si>
+  <si>
+    <t>jlk</t>
+  </si>
+  <si>
+    <t>2025-04-22 15:50:52</t>
+  </si>
+  <si>
+    <t>kjkj</t>
+  </si>
+  <si>
+    <t>njk</t>
+  </si>
+  <si>
+    <t>nk</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>jkh</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>kjhk</t>
+  </si>
+  <si>
+    <t>hj</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
 </sst>
 </file>
@@ -360,7 +615,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,277 +623,770 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <v>12.2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1234567</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>123.0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>11212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>12312</v>
+      </c>
+      <c r="E6">
+        <v>312</v>
+      </c>
+      <c r="F6">
+        <v>312</v>
+      </c>
+      <c r="G6">
+        <v>312</v>
+      </c>
+      <c r="H6">
+        <v>123</v>
+      </c>
+      <c r="I6">
+        <v>123</v>
+      </c>
+      <c r="J6">
+        <v>213123</v>
+      </c>
+      <c r="K6">
+        <v>123</v>
+      </c>
+      <c r="L6">
+        <v>123.0</v>
+      </c>
+      <c r="M6">
+        <v>123</v>
+      </c>
+      <c r="N6">
+        <v>123123</v>
+      </c>
+      <c r="O6">
+        <v>123</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>11</v>
       </c>
-      <c r="L1">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="M1">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="N1">
-        <v>14</v>
-      </c>
-      <c r="O1">
-        <v>15</v>
-      </c>
-      <c r="P1">
-        <v>16</v>
-      </c>
-      <c r="Q1">
-        <v>17</v>
-      </c>
-      <c r="R1">
-        <v>18</v>
-      </c>
-      <c r="S1">
-        <v>19</v>
-      </c>
-      <c r="T1">
-        <v>20</v>
-      </c>
-      <c r="U1">
-        <v>21</v>
-      </c>
-      <c r="V1">
-        <v>22</v>
-      </c>
-      <c r="W1">
-        <v>23</v>
-      </c>
-      <c r="X1">
-        <v>24</v>
-      </c>
-      <c r="Y1">
-        <v>25</v>
-      </c>
-      <c r="Z1">
-        <v>26</v>
-      </c>
-      <c r="AA1">
-        <v>27</v>
-      </c>
-      <c r="AB1">
-        <v>28</v>
-      </c>
-      <c r="AC1">
-        <v>29</v>
-      </c>
-      <c r="AD1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="B14">
         <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
